--- a/PCBA files/rbc2 BOM.xlsx
+++ b/PCBA files/rbc2 BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/355e543704769c9a/Documents/GitHub/rbc-circuit-rev2/PCBA files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{445A832A-4696-4C51-BDB4-252A0259EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D8EF65-CEAE-42BA-B72F-0AD7A239B6ED}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{445A832A-4696-4C51-BDB4-252A0259EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1BC678B-1C15-43E9-8882-A6097628036E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
   <si>
     <t>Comment</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Connector_Molex:Molex_Micro-Fit_3.0_43045-0612_2x03_P3.00mm_Vertical</t>
   </si>
   <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>Jumper:SolderJumper-2_P1.3mm_Open_RoundedPad1.0x1.5mm</t>
-  </si>
-  <si>
-    <t>JP2</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>J9, J10, J11</t>
   </si>
   <si>
-    <t>JP3</t>
-  </si>
-  <si>
     <t>L2, L3, L4, L6</t>
   </si>
   <si>
@@ -359,9 +347,6 @@
     <t>Connector_Molex:Molex_Micro-Fit_3.0_43045-0412_2x02_P3.00mm_Vertical</t>
   </si>
   <si>
-    <t>Jumper:SolderJumper-3_P2.0mm_Open_TrianglePad1.0x1.5mm</t>
-  </si>
-  <si>
     <t>Inductor_SMD:L_0805_2012Metric</t>
   </si>
   <si>
@@ -416,9 +401,6 @@
     <t>C412300</t>
   </si>
   <si>
-    <t>C3012375</t>
-  </si>
-  <si>
     <t>C2649519</t>
   </si>
   <si>
@@ -501,6 +483,9 @@
   </si>
   <si>
     <t>C22460</t>
+  </si>
+  <si>
+    <t>C482489</t>
   </si>
 </sst>
 </file>
@@ -627,6 +612,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,58 +911,58 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
@@ -981,41 +970,41 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
@@ -1023,125 +1012,125 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75">
@@ -1149,21 +1138,21 @@
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -1172,46 +1161,46 @@
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>10</v>
@@ -1220,10 +1209,10 @@
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>11</v>
@@ -1232,22 +1221,22 @@
     </row>
     <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -1256,318 +1245,282 @@
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="5" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="5" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75">
-      <c r="A39" s="5" t="s">
-        <v>89</v>
+      <c r="A39" s="6">
+        <v>300</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="5" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75">
-      <c r="A42" s="6">
-        <v>300</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="5" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="5" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="5" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75">
-      <c r="A48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
